--- a/BackTest/2020-01-23 BackTest AMO.xlsx
+++ b/BackTest/2020-01-23 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4286834.328</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4286834.328</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3384349.535</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>4091891.793</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3163979.713</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4422446.526</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5206270.645</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4202076.704</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5494446.566</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4346164.664</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5850428.586</v>
       </c>
       <c r="H12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4583486.011</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3553864.783</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4761477.021</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3723380.03</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5007274.13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5007274.13</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3562340.545</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>4261407.04</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3274164.624</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>4685195.159</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3452155.634</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1930940.188</v>
       </c>
       <c r="H24" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2765618.882</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2765618.882</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4219028.229</v>
       </c>
       <c r="H27" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3426728.347</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2625952.703</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3367398.01</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2261494.92</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1392913.177</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2778516.425</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3867467.99</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2676807.276</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>3689476.98</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2558146.602999999</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4036983.236999999</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3066692.344999999</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2308295.512999999</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3659995.711999999</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2410004.662</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2410004.662</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>948119.5519999994</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2189634.839999999</v>
       </c>
       <c r="H45" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2189634.839999999</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3507431.988999999</v>
       </c>
       <c r="H47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>4782850.325999999</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3931220.108</v>
       </c>
       <c r="H49" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3931220.108</v>
       </c>
       <c r="H50" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4893035.237</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3846462.484</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2333722.8</v>
       </c>
       <c r="H53" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3515907.751</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2291343.988</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3312489.454</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3312489.454</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>4486198.643</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3659995.712</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2596471.434</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3456577.415000001</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2121828.741</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2812419.474</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1503098.087</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1477670.8</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1846182.564</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>469055.0780000002</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1583433.93</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>3079222.089</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2125882.722</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>706376.4240000001</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1036931.157</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-128302.2689999999</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-903650.6259999998</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1039262.824</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-22963128.62700001</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -12496,10 +12496,14 @@
         <v>-68822675.80582288</v>
       </c>
       <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="J367" t="n">
+        <v>0.2518</v>
+      </c>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
@@ -12529,11 +12533,19 @@
         <v>-69835345.50982288</v>
       </c>
       <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J368" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12574,19 @@
         <v>-68704015.13282287</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.2518</v>
+      </c>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,10 +12615,14 @@
         <v>-70182851.76682287</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.2517</v>
+      </c>
       <c r="K370" t="inlineStr"/>
       <c r="L370" t="n">
         <v>1</v>
@@ -12628,11 +12652,19 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,11 +12693,19 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,10 +12734,14 @@
         <v>-71895097.18552287</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J373" t="n">
+        <v>0.2517</v>
+      </c>
       <c r="K373" t="inlineStr"/>
       <c r="L373" t="n">
         <v>1</v>
@@ -12727,11 +12771,19 @@
         <v>-70543396.98652287</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12760,11 +12812,19 @@
         <v>-69293405.93652287</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
-      <c r="J375" t="inlineStr"/>
-      <c r="K375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J375" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K375" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L375" t="n">
         <v>1</v>
       </c>
@@ -12793,10 +12853,14 @@
         <v>-70450163.60052288</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.2517</v>
+      </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
@@ -12826,11 +12890,19 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12859,7 +12931,7 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H378" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I378" t="n">
         <v>0.2517</v>
@@ -12867,7 +12939,11 @@
       <c r="J378" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12896,7 +12972,7 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H379" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I379" t="n">
         <v>0.2517</v>
@@ -12904,11 +12980,7 @@
       <c r="J379" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12937,7 +13009,7 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I380" t="n">
         <v>0.2517</v>
@@ -12978,7 +13050,7 @@
         <v>-69947054.34347083</v>
       </c>
       <c r="H381" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I381" t="n">
         <v>0.2517</v>
@@ -12986,7 +13058,11 @@
       <c r="J381" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13015,19 +13091,15 @@
         <v>-71264851.49247083</v>
       </c>
       <c r="H382" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I382" t="n">
         <v>0.2541</v>
       </c>
       <c r="J382" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0.2541</v>
+      </c>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13060,7 +13132,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>0.2517</v>
+        <v>0.2541</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13098,8 +13170,14 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="inlineStr"/>
-      <c r="K384" t="inlineStr"/>
+      <c r="J384" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="K384" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13161,7 +13239,7 @@
         <v>-73367456.04747082</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="inlineStr"/>
@@ -13194,7 +13272,7 @@
         <v>-74185183.21647082</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="inlineStr"/>
@@ -13227,7 +13305,7 @@
         <v>-73223368.08747083</v>
       </c>
       <c r="H388" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="inlineStr"/>
@@ -13260,7 +13338,7 @@
         <v>-74269940.84047084</v>
       </c>
       <c r="H389" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="inlineStr"/>
@@ -13295,8 +13373,12 @@
       <c r="H390" t="n">
         <v>1</v>
       </c>
-      <c r="I390" t="inlineStr"/>
-      <c r="J390" t="inlineStr"/>
+      <c r="I390" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J390" t="n">
+        <v>0.252</v>
+      </c>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
@@ -13328,9 +13410,17 @@
       <c r="H391" t="n">
         <v>1</v>
       </c>
-      <c r="I391" t="inlineStr"/>
-      <c r="J391" t="inlineStr"/>
-      <c r="K391" t="inlineStr"/>
+      <c r="I391" t="n">
+        <v>0.2535</v>
+      </c>
+      <c r="J391" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K391" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13361,9 +13451,17 @@
       <c r="H392" t="n">
         <v>1</v>
       </c>
-      <c r="I392" t="inlineStr"/>
-      <c r="J392" t="inlineStr"/>
-      <c r="K392" t="inlineStr"/>
+      <c r="I392" t="n">
+        <v>0.254</v>
+      </c>
+      <c r="J392" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K392" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13394,8 +13492,12 @@
       <c r="H393" t="n">
         <v>1</v>
       </c>
-      <c r="I393" t="inlineStr"/>
-      <c r="J393" t="inlineStr"/>
+      <c r="I393" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="J393" t="n">
+        <v>0.252</v>
+      </c>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
@@ -13427,9 +13529,17 @@
       <c r="H394" t="n">
         <v>1</v>
       </c>
-      <c r="I394" t="inlineStr"/>
-      <c r="J394" t="inlineStr"/>
-      <c r="K394" t="inlineStr"/>
+      <c r="I394" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="J394" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K394" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13458,11 +13568,17 @@
         <v>-73818503.43447083</v>
       </c>
       <c r="H395" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="inlineStr"/>
-      <c r="K395" t="inlineStr"/>
+      <c r="J395" t="n">
+        <v>0.252</v>
+      </c>
+      <c r="K395" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -13491,7 +13607,7 @@
         <v>-73816281.43447083</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
@@ -13524,7 +13640,7 @@
         <v>-74989990.62347083</v>
       </c>
       <c r="H397" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="inlineStr"/>
@@ -13557,7 +13673,7 @@
         <v>-61424243.69917083</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="inlineStr"/>
@@ -13788,14 +13904,10 @@
         <v>-63169450.50017083</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
-      </c>
-      <c r="I405" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="J405" t="n">
-        <v>0.2536</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
@@ -13828,14 +13940,8 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -13867,14 +13973,8 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>0.2536</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -17896,7 +17996,7 @@
         <v>-54846925.28697088</v>
       </c>
       <c r="H529" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17962,7 +18062,7 @@
         <v>-54582046.50887088</v>
       </c>
       <c r="H531" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -17995,7 +18095,7 @@
         <v>-53086258.34987088</v>
       </c>
       <c r="H532" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I532" t="inlineStr"/>
       <c r="J532" t="inlineStr"/>
@@ -18028,7 +18128,7 @@
         <v>-52132918.98287088</v>
       </c>
       <c r="H533" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I533" t="inlineStr"/>
       <c r="J533" t="inlineStr"/>
@@ -18094,7 +18194,7 @@
         <v>-52039685.59687088</v>
       </c>
       <c r="H535" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I535" t="inlineStr"/>
       <c r="J535" t="inlineStr"/>
@@ -18226,7 +18326,7 @@
         <v>-53685736.86487088</v>
       </c>
       <c r="H539" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I539" t="inlineStr"/>
       <c r="J539" t="inlineStr"/>
@@ -18490,7 +18590,7 @@
         <v>-54533313.10187088</v>
       </c>
       <c r="H547" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I547" t="inlineStr"/>
       <c r="J547" t="inlineStr"/>
@@ -19414,7 +19514,7 @@
         <v>-62082779.3801709</v>
       </c>
       <c r="H575" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19447,7 +19547,7 @@
         <v>-63375149.2421709</v>
       </c>
       <c r="H576" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22032,6 +22132,6 @@
       <c r="M654" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest AMO.xlsx
+++ b/BackTest/2020-01-23 BackTest AMO.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>4286834.328</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>4286834.328</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>3384349.535</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>4091891.793</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>3163979.713</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>4422446.526</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>5206270.645</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>4202076.704</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>5494446.566</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>4346164.664</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>5850428.586</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>4583486.011</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>3553864.783</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>4761477.021</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>3723380.03</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>5007274.13</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -979,7 +979,7 @@
         <v>5007274.13</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>3562340.545</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1045,7 +1045,7 @@
         <v>4261407.04</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="inlineStr"/>
@@ -1078,7 +1078,7 @@
         <v>3274164.624</v>
       </c>
       <c r="H21" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="inlineStr"/>
@@ -1111,7 +1111,7 @@
         <v>4685195.159</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="inlineStr"/>
@@ -1144,7 +1144,7 @@
         <v>3452155.634</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="inlineStr"/>
@@ -1177,7 +1177,7 @@
         <v>1930940.188</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="inlineStr"/>
@@ -1210,7 +1210,7 @@
         <v>2765618.882</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="inlineStr"/>
@@ -1243,7 +1243,7 @@
         <v>2765618.882</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="inlineStr"/>
@@ -1276,7 +1276,7 @@
         <v>4219028.229</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>3426728.347</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
         <v>2625952.703</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>3367398.01</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1408,7 +1408,7 @@
         <v>2261494.92</v>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="inlineStr"/>
@@ -1441,7 +1441,7 @@
         <v>1392913.177</v>
       </c>
       <c r="H32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="inlineStr"/>
@@ -1474,7 +1474,7 @@
         <v>2778516.425</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>3867467.99</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -1540,7 +1540,7 @@
         <v>2676807.276</v>
       </c>
       <c r="H35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="inlineStr"/>
@@ -1573,7 +1573,7 @@
         <v>3689476.98</v>
       </c>
       <c r="H36" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="inlineStr"/>
@@ -1606,7 +1606,7 @@
         <v>2558146.602999999</v>
       </c>
       <c r="H37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="inlineStr"/>
@@ -1639,7 +1639,7 @@
         <v>4036983.236999999</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="inlineStr"/>
@@ -1672,7 +1672,7 @@
         <v>3066692.344999999</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="inlineStr"/>
@@ -1705,7 +1705,7 @@
         <v>2308295.512999999</v>
       </c>
       <c r="H40" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="inlineStr"/>
@@ -1738,7 +1738,7 @@
         <v>3659995.711999999</v>
       </c>
       <c r="H41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="inlineStr"/>
@@ -1771,7 +1771,7 @@
         <v>2410004.662</v>
       </c>
       <c r="H42" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I42" t="inlineStr"/>
       <c r="J42" t="inlineStr"/>
@@ -1804,7 +1804,7 @@
         <v>2410004.662</v>
       </c>
       <c r="H43" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I43" t="inlineStr"/>
       <c r="J43" t="inlineStr"/>
@@ -1837,7 +1837,7 @@
         <v>948119.5519999994</v>
       </c>
       <c r="H44" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I44" t="inlineStr"/>
       <c r="J44" t="inlineStr"/>
@@ -1870,7 +1870,7 @@
         <v>2189634.839999999</v>
       </c>
       <c r="H45" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I45" t="inlineStr"/>
       <c r="J45" t="inlineStr"/>
@@ -1903,7 +1903,7 @@
         <v>2189634.839999999</v>
       </c>
       <c r="H46" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I46" t="inlineStr"/>
       <c r="J46" t="inlineStr"/>
@@ -1936,7 +1936,7 @@
         <v>3507431.988999999</v>
       </c>
       <c r="H47" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I47" t="inlineStr"/>
       <c r="J47" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>4782850.325999999</v>
       </c>
       <c r="H48" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2002,7 +2002,7 @@
         <v>3931220.108</v>
       </c>
       <c r="H49" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I49" t="inlineStr"/>
       <c r="J49" t="inlineStr"/>
@@ -2035,7 +2035,7 @@
         <v>3931220.108</v>
       </c>
       <c r="H50" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I50" t="inlineStr"/>
       <c r="J50" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>4893035.237</v>
       </c>
       <c r="H51" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>3846462.484</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
         <v>2333722.8</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I53" t="inlineStr"/>
       <c r="J53" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>3515907.751</v>
       </c>
       <c r="H54" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>2291343.988</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>3312489.454</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>3312489.454</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>4486198.643</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>3659995.712</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>2596471.434</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>3456577.415000001</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>2121828.741</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>2812419.474</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>1503098.087</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>1477670.8</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>1846182.564</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>469055.0780000002</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>1583433.93</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>3079222.089</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>2125882.722</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>706376.4240000001</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>1036931.157</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-128302.2689999999</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-903650.6259999998</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-1039262.824</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -12496,14 +12496,10 @@
         <v>-68822675.80582288</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="J367" t="n">
-        <v>0.2518</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
@@ -12533,454 +12529,386 @@
         <v>-69835345.50982288</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
         <v>0.2517</v>
       </c>
-      <c r="J368" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K368" t="inlineStr">
+      <c r="C369" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D369" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E369" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F369" t="n">
+        <v>1131330.377</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-68704015.13282287</v>
+      </c>
+      <c r="H369" t="n">
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C370" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D370" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E370" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F370" t="n">
+        <v>1478836.634</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-70182851.76682287</v>
+      </c>
+      <c r="H370" t="n">
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C371" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D371" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E371" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F371" t="n">
+        <v>970290.892</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-69212560.87482287</v>
+      </c>
+      <c r="H371" t="n">
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F372" t="n">
+        <v>758396.8320000001</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-69212560.87482287</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="C373" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="D373" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="E373" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="F373" t="n">
+        <v>2682536.3107</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-71895097.18552287</v>
+      </c>
+      <c r="H373" t="n">
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr"/>
+      <c r="L373" t="n">
+        <v>1</v>
+      </c>
+      <c r="M373" t="inlineStr"/>
+    </row>
+    <row r="374">
+      <c r="A374" s="1" t="n">
+        <v>372</v>
+      </c>
+      <c r="B374" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C374" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D374" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E374" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F374" t="n">
+        <v>1351700.199</v>
+      </c>
+      <c r="G374" t="n">
+        <v>-70543396.98652287</v>
+      </c>
+      <c r="H374" t="n">
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
+      <c r="J374" t="inlineStr"/>
+      <c r="K374" t="inlineStr"/>
+      <c r="L374" t="n">
+        <v>1</v>
+      </c>
+      <c r="M374" t="inlineStr"/>
+    </row>
+    <row r="375">
+      <c r="A375" s="1" t="n">
+        <v>373</v>
+      </c>
+      <c r="B375" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C375" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D375" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E375" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F375" t="n">
+        <v>1249991.05</v>
+      </c>
+      <c r="G375" t="n">
+        <v>-69293405.93652287</v>
+      </c>
+      <c r="H375" t="n">
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
+      <c r="K375" t="inlineStr"/>
+      <c r="L375" t="n">
+        <v>1</v>
+      </c>
+      <c r="M375" t="inlineStr"/>
+    </row>
+    <row r="376">
+      <c r="A376" s="1" t="n">
+        <v>374</v>
+      </c>
+      <c r="B376" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="C376" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="D376" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="E376" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="F376" t="n">
+        <v>1156757.664</v>
+      </c>
+      <c r="G376" t="n">
+        <v>-70450163.60052288</v>
+      </c>
+      <c r="H376" t="n">
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
+      <c r="K376" t="inlineStr"/>
+      <c r="L376" t="n">
+        <v>1</v>
+      </c>
+      <c r="M376" t="inlineStr"/>
+    </row>
+    <row r="377">
+      <c r="A377" s="1" t="n">
+        <v>375</v>
+      </c>
+      <c r="B377" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C377" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D377" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E377" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F377" t="n">
+        <v>425109.2570520461</v>
+      </c>
+      <c r="G377" t="n">
+        <v>-70025054.34347083</v>
+      </c>
+      <c r="H377" t="n">
+        <v>0</v>
+      </c>
+      <c r="I377" t="inlineStr"/>
+      <c r="J377" t="inlineStr"/>
+      <c r="K377" t="inlineStr"/>
+      <c r="L377" t="n">
+        <v>1</v>
+      </c>
+      <c r="M377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" s="1" t="n">
+        <v>376</v>
+      </c>
+      <c r="B378" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C378" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D378" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E378" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F378" t="n">
+        <v>1461885.11</v>
+      </c>
+      <c r="G378" t="n">
+        <v>-70025054.34347083</v>
+      </c>
+      <c r="H378" t="n">
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J378" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K378" t="inlineStr"/>
+      <c r="L378" t="n">
+        <v>1</v>
+      </c>
+      <c r="M378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" s="1" t="n">
+        <v>377</v>
+      </c>
+      <c r="B379" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="C379" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="D379" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="E379" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="F379" t="n">
+        <v>1241515.288</v>
+      </c>
+      <c r="G379" t="n">
+        <v>-70025054.34347083</v>
+      </c>
+      <c r="H379" t="n">
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J379" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K379" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C369" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D369" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E369" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F369" t="n">
-        <v>1131330.377</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-68704015.13282287</v>
-      </c>
-      <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J369" t="n">
-        <v>0.2518</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C370" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D370" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E370" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F370" t="n">
-        <v>1478836.634</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-70182851.76682287</v>
-      </c>
-      <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J370" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K370" t="inlineStr"/>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C371" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D371" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E371" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F371" t="n">
-        <v>970290.892</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-69212560.87482287</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J371" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C372" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D372" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E372" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F372" t="n">
-        <v>758396.8320000001</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-69212560.87482287</v>
-      </c>
-      <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J372" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="C373" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="D373" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="E373" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="F373" t="n">
-        <v>2682536.3107</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-71895097.18552287</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J373" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K373" t="inlineStr"/>
-      <c r="L373" t="n">
-        <v>1</v>
-      </c>
-      <c r="M373" t="inlineStr"/>
-    </row>
-    <row r="374">
-      <c r="A374" s="1" t="n">
-        <v>372</v>
-      </c>
-      <c r="B374" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C374" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D374" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E374" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F374" t="n">
-        <v>1351700.199</v>
-      </c>
-      <c r="G374" t="n">
-        <v>-70543396.98652287</v>
-      </c>
-      <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>0.2515</v>
-      </c>
-      <c r="J374" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K374" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L374" t="n">
-        <v>1</v>
-      </c>
-      <c r="M374" t="inlineStr"/>
-    </row>
-    <row r="375">
-      <c r="A375" s="1" t="n">
-        <v>373</v>
-      </c>
-      <c r="B375" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C375" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D375" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E375" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F375" t="n">
-        <v>1249991.05</v>
-      </c>
-      <c r="G375" t="n">
-        <v>-69293405.93652287</v>
-      </c>
-      <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J375" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K375" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L375" t="n">
-        <v>1</v>
-      </c>
-      <c r="M375" t="inlineStr"/>
-    </row>
-    <row r="376">
-      <c r="A376" s="1" t="n">
-        <v>374</v>
-      </c>
-      <c r="B376" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="C376" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="D376" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="E376" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="F376" t="n">
-        <v>1156757.664</v>
-      </c>
-      <c r="G376" t="n">
-        <v>-70450163.60052288</v>
-      </c>
-      <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J376" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K376" t="inlineStr"/>
-      <c r="L376" t="n">
-        <v>1</v>
-      </c>
-      <c r="M376" t="inlineStr"/>
-    </row>
-    <row r="377">
-      <c r="A377" s="1" t="n">
-        <v>375</v>
-      </c>
-      <c r="B377" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C377" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D377" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E377" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F377" t="n">
-        <v>425109.2570520461</v>
-      </c>
-      <c r="G377" t="n">
-        <v>-70025054.34347083</v>
-      </c>
-      <c r="H377" t="n">
-        <v>1</v>
-      </c>
-      <c r="I377" t="n">
-        <v>0.2516</v>
-      </c>
-      <c r="J377" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K377" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L377" t="n">
-        <v>1</v>
-      </c>
-      <c r="M377" t="inlineStr"/>
-    </row>
-    <row r="378">
-      <c r="A378" s="1" t="n">
-        <v>376</v>
-      </c>
-      <c r="B378" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C378" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D378" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E378" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F378" t="n">
-        <v>1461885.11</v>
-      </c>
-      <c r="G378" t="n">
-        <v>-70025054.34347083</v>
-      </c>
-      <c r="H378" t="n">
-        <v>1</v>
-      </c>
-      <c r="I378" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J378" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K378" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
-      <c r="L378" t="n">
-        <v>1</v>
-      </c>
-      <c r="M378" t="inlineStr"/>
-    </row>
-    <row r="379">
-      <c r="A379" s="1" t="n">
-        <v>377</v>
-      </c>
-      <c r="B379" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="C379" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="D379" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="E379" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="F379" t="n">
-        <v>1241515.288</v>
-      </c>
-      <c r="G379" t="n">
-        <v>-70025054.34347083</v>
-      </c>
-      <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="J379" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -13058,48 +12986,48 @@
       <c r="J381" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K381" t="inlineStr">
+      <c r="K381" t="inlineStr"/>
+      <c r="L381" t="n">
+        <v>1</v>
+      </c>
+      <c r="M381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" s="1" t="n">
+        <v>380</v>
+      </c>
+      <c r="B382" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="C382" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="D382" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="E382" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="F382" t="n">
+        <v>1317797.149</v>
+      </c>
+      <c r="G382" t="n">
+        <v>-71264851.49247083</v>
+      </c>
+      <c r="H382" t="n">
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>0.2541</v>
+      </c>
+      <c r="J382" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K382" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L381" t="n">
-        <v>1</v>
-      </c>
-      <c r="M381" t="inlineStr"/>
-    </row>
-    <row r="382">
-      <c r="A382" s="1" t="n">
-        <v>380</v>
-      </c>
-      <c r="B382" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="C382" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="D382" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="E382" t="n">
-        <v>0.2525</v>
-      </c>
-      <c r="F382" t="n">
-        <v>1317797.149</v>
-      </c>
-      <c r="G382" t="n">
-        <v>-71264851.49247083</v>
-      </c>
-      <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="J382" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13132,7 +13060,7 @@
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
-        <v>0.2541</v>
+        <v>0.2517</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13170,14 +13098,8 @@
         <v>0</v>
       </c>
       <c r="I384" t="inlineStr"/>
-      <c r="J384" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="K384" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J384" t="inlineStr"/>
+      <c r="K384" t="inlineStr"/>
       <c r="L384" t="n">
         <v>1</v>
       </c>
@@ -13371,14 +13293,10 @@
         <v>-72757201.15647084</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J390" t="n">
-        <v>0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
@@ -13408,19 +13326,11 @@
         <v>-71575016.20547083</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>0.2535</v>
-      </c>
-      <c r="J391" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -13449,19 +13359,11 @@
         <v>-72799579.96847083</v>
       </c>
       <c r="H392" t="n">
-        <v>1</v>
-      </c>
-      <c r="I392" t="n">
-        <v>0.254</v>
-      </c>
-      <c r="J392" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I392" t="inlineStr"/>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -13490,14 +13392,10 @@
         <v>-72797357.96847083</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="J393" t="n">
-        <v>0.252</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
@@ -13527,19 +13425,11 @@
         <v>-73818503.43447083</v>
       </c>
       <c r="H394" t="n">
-        <v>1</v>
-      </c>
-      <c r="I394" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="J394" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I394" t="inlineStr"/>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -13571,14 +13461,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>0.252</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -14267,7 +14151,7 @@
         <v>-63307118.17357083</v>
       </c>
       <c r="H416" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14333,7 +14217,7 @@
         <v>-61832619.81787083</v>
       </c>
       <c r="H418" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14366,7 +14250,7 @@
         <v>-63252126.11587083</v>
       </c>
       <c r="H419" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14399,7 +14283,7 @@
         <v>-64578399.02787083</v>
       </c>
       <c r="H420" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -19019,7 +18903,7 @@
         <v>-55147599.75487088</v>
       </c>
       <c r="H560" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19283,7 +19167,7 @@
         <v>-60826534.5671709</v>
       </c>
       <c r="H568" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19349,7 +19233,7 @@
         <v>-61046904.38917089</v>
       </c>
       <c r="H570" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19514,7 +19398,7 @@
         <v>-62082779.3801709</v>
       </c>
       <c r="H575" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I575" t="inlineStr"/>
       <c r="J575" t="inlineStr"/>
@@ -19547,7 +19431,7 @@
         <v>-63375149.2421709</v>
       </c>
       <c r="H576" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I576" t="inlineStr"/>
       <c r="J576" t="inlineStr"/>
@@ -22132,6 +22016,6 @@
       <c r="M654" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-23 BackTest AMO.xlsx
+++ b/BackTest/2020-01-23 BackTest AMO.xlsx
@@ -12562,10 +12562,14 @@
         <v>-68704015.13282287</v>
       </c>
       <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I369" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J369" t="n">
+        <v>0.2516</v>
+      </c>
       <c r="K369" t="inlineStr"/>
       <c r="L369" t="n">
         <v>1</v>
@@ -12595,11 +12599,19 @@
         <v>-70182851.76682287</v>
       </c>
       <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I370" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J370" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12640,19 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
-      <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J371" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12661,10 +12681,14 @@
         <v>-69212560.87482287</v>
       </c>
       <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I372" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J372" t="n">
+        <v>0.2517</v>
+      </c>
       <c r="K372" t="inlineStr"/>
       <c r="L372" t="n">
         <v>1</v>
@@ -12697,8 +12721,14 @@
         <v>0</v>
       </c>
       <c r="I373" t="inlineStr"/>
-      <c r="J373" t="inlineStr"/>
-      <c r="K373" t="inlineStr"/>
+      <c r="J373" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K373" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12727,11 +12757,19 @@
         <v>-70543396.98652287</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
-      <c r="J374" t="inlineStr"/>
-      <c r="K374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>0.2515</v>
+      </c>
+      <c r="J374" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K374" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L374" t="n">
         <v>1</v>
       </c>
@@ -12793,10 +12831,14 @@
         <v>-70450163.60052288</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
-      <c r="J376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="J376" t="n">
+        <v>0.2517</v>
+      </c>
       <c r="K376" t="inlineStr"/>
       <c r="L376" t="n">
         <v>1</v>
@@ -12826,11 +12868,19 @@
         <v>-70025054.34347083</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
-      <c r="J377" t="inlineStr"/>
-      <c r="K377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>0.2516</v>
+      </c>
+      <c r="J377" t="n">
+        <v>0.2517</v>
+      </c>
+      <c r="K377" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L377" t="n">
         <v>1</v>
       </c>
@@ -12867,7 +12917,11 @@
       <c r="J378" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K378" t="inlineStr"/>
+      <c r="K378" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L378" t="n">
         <v>1</v>
       </c>
@@ -12904,11 +12958,7 @@
       <c r="J379" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K379" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="K379" t="inlineStr"/>
       <c r="L379" t="n">
         <v>1</v>
       </c>
@@ -12986,7 +13036,11 @@
       <c r="J381" t="n">
         <v>0.2517</v>
       </c>
-      <c r="K381" t="inlineStr"/>
+      <c r="K381" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="L381" t="n">
         <v>1</v>
       </c>
@@ -13015,19 +13069,11 @@
         <v>-71264851.49247083</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>0.2541</v>
-      </c>
-      <c r="J382" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K382" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
+      <c r="J382" t="inlineStr"/>
+      <c r="K382" t="inlineStr"/>
       <c r="L382" t="n">
         <v>1</v>
       </c>
@@ -13059,14 +13105,8 @@
         <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
-      <c r="J383" t="n">
-        <v>0.2517</v>
-      </c>
-      <c r="K383" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J383" t="inlineStr"/>
+      <c r="K383" t="inlineStr"/>
       <c r="L383" t="n">
         <v>1</v>
       </c>
@@ -14151,7 +14191,7 @@
         <v>-63307118.17357083</v>
       </c>
       <c r="H416" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="inlineStr"/>
@@ -14217,7 +14257,7 @@
         <v>-61832619.81787083</v>
       </c>
       <c r="H418" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="inlineStr"/>
@@ -14250,7 +14290,7 @@
         <v>-63252126.11587083</v>
       </c>
       <c r="H419" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="inlineStr"/>
@@ -14283,7 +14323,7 @@
         <v>-64578399.02787083</v>
       </c>
       <c r="H420" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="inlineStr"/>
@@ -17781,7 +17821,7 @@
         <v>-54603195.45597088</v>
       </c>
       <c r="H526" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I526" t="inlineStr"/>
       <c r="J526" t="inlineStr"/>
@@ -17814,7 +17854,7 @@
         <v>-53678701.67297088</v>
       </c>
       <c r="H527" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I527" t="inlineStr"/>
       <c r="J527" t="inlineStr"/>
@@ -17847,7 +17887,7 @@
         <v>-54808825.28697088</v>
       </c>
       <c r="H528" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I528" t="inlineStr"/>
       <c r="J528" t="inlineStr"/>
@@ -17880,7 +17920,7 @@
         <v>-54846925.28697088</v>
       </c>
       <c r="H529" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I529" t="inlineStr"/>
       <c r="J529" t="inlineStr"/>
@@ -17946,7 +17986,7 @@
         <v>-54582046.50887088</v>
       </c>
       <c r="H531" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I531" t="inlineStr"/>
       <c r="J531" t="inlineStr"/>
@@ -18738,7 +18778,7 @@
         <v>-57124306.58787089</v>
       </c>
       <c r="H555" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I555" t="inlineStr"/>
       <c r="J555" t="inlineStr"/>
@@ -18903,7 +18943,7 @@
         <v>-55147599.75487088</v>
       </c>
       <c r="H560" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I560" t="inlineStr"/>
       <c r="J560" t="inlineStr"/>
@@ -19167,7 +19207,7 @@
         <v>-60826534.5671709</v>
       </c>
       <c r="H568" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I568" t="inlineStr"/>
       <c r="J568" t="inlineStr"/>
@@ -19233,7 +19273,7 @@
         <v>-61046904.38917089</v>
       </c>
       <c r="H570" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I570" t="inlineStr"/>
       <c r="J570" t="inlineStr"/>
@@ -19728,7 +19768,7 @@
         <v>-62813526.9251709</v>
       </c>
       <c r="H585" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I585" t="inlineStr"/>
       <c r="J585" t="inlineStr"/>
